--- a/Excel/Language/Common.xlsx
+++ b/Excel/Language/Common.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26505" windowHeight="15210"/>
+    <workbookView windowWidth="29805" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>语言包ID</t>
   </si>
@@ -30,7 +30,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
+    <t>str</t>
   </si>
   <si>
     <t>id</t>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>cs</t>
   </si>
   <si>
     <t>草泥马</t>
@@ -53,12 +56,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,7 +71,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,14 +85,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,74 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -195,6 +177,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -204,15 +194,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +223,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,37 +343,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,13 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,109 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,15 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -456,6 +443,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,15 +480,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -510,6 +497,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -523,148 +519,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1061,18 +1057,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
+    <row r="4" spans="3:4">
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language/Common.xlsx
+++ b/Excel/Language/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\UnityWork\Excel\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D8B961-1D88-4359-AEED-669DA854835B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380C0AA2-7B4C-4001-9228-005A37C10A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41400" yWindow="1485" windowWidth="31980" windowHeight="18510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="1770" windowWidth="31980" windowHeight="18510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>语言包ID</t>
   </si>
@@ -33,13 +33,7 @@
     <t>英语</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>str</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>cs</t>
@@ -423,7 +417,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -443,33 +437,27 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -480,10 +468,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
